--- a/Feb'2021/20.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/20.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2490,6 +2490,21 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2506,12 +2521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2699,15 +2708,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3120,67 +3120,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="258"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3189,52 +3189,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="249" t="s">
+      <c r="D4" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="249" t="s">
+      <c r="F4" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="249" t="s">
+      <c r="G4" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="249" t="s">
+      <c r="H4" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="249" t="s">
+      <c r="I4" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="249" t="s">
+      <c r="J4" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="256" t="s">
+      <c r="K4" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="258" t="s">
+      <c r="L4" s="261" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="260" t="s">
+      <c r="M4" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="262" t="s">
+      <c r="N4" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="264" t="s">
+      <c r="O4" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="254" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="192" t="s">
@@ -3247,22 +3247,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="246"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="252"/>
+      <c r="A5" s="251"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="255"/>
       <c r="Q5" s="193" t="s">
         <v>36</v>
       </c>
@@ -6164,6 +6164,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -6180,9 +6183,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6210,12 +6210,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="268"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6230,12 +6230,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -8222,8 +8222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8234,28 +8234,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="272"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="275"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="273"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="275"/>
+      <c r="A2" s="276"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="279" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="278"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="279"/>
-      <c r="B4" s="280"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="282"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="227" t="s">
@@ -8416,13 +8416,13 @@
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="314">
+      <c r="B17" s="244">
         <v>5685</v>
       </c>
-      <c r="C17" s="315" t="s">
+      <c r="C17" s="245" t="s">
         <v>178</v>
       </c>
       <c r="E17" s="240"/>
@@ -8617,11 +8617,11 @@
       <c r="A29" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="282">
+      <c r="B29" s="285">
         <f>SUM(B6:B28)</f>
         <v>123627</v>
       </c>
-      <c r="C29" s="283"/>
+      <c r="C29" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8639,7 +8639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8661,25 +8661,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="289"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="292"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="292"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8704,11 +8704,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="296" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="294"/>
-      <c r="L4" s="295"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="298"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8975,21 +8975,21 @@
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
       <c r="F16" s="23"/>
-      <c r="J16" s="296" t="s">
+      <c r="J16" s="299" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="297"/>
+      <c r="K16" s="300"/>
       <c r="L16" s="136">
         <f>SUM(L6:L15)</f>
         <v>18426</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="284"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="285"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="286"/>
+      <c r="A17" s="287"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="289"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -9129,108 +9129,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="307" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="304" t="s">
+      <c r="B5" s="308"/>
+      <c r="C5" s="307" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="306"/>
-      <c r="P5" s="305"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="309"/>
+      <c r="P5" s="308"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9813,11 +9813,11 @@
       <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="298" t="s">
+      <c r="A28" s="301" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="300"/>
+      <c r="B28" s="302"/>
+      <c r="C28" s="303"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10555,12 +10555,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="310" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="312"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10955,111 +10955,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="310" t="s">
+      <c r="A5" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="311"/>
+      <c r="B5" s="314"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="174"/>
-      <c r="F5" s="306" t="s">
+      <c r="F5" s="309" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="306"/>
-      <c r="P5" s="306"/>
-      <c r="Q5" s="305"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="309"/>
+      <c r="P5" s="309"/>
+      <c r="Q5" s="308"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11693,11 +11693,11 @@
       <c r="Q27" s="182"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="298" t="s">
+      <c r="A28" s="301" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="300"/>
+      <c r="B28" s="302"/>
+      <c r="C28" s="303"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12431,10 +12431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.95" customHeight="1">
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="315" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="312"/>
+      <c r="C1" s="315"/>
     </row>
     <row r="2" spans="2:3" ht="15.95" customHeight="1">
       <c r="B2" s="242" t="s">
